--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1971539.261539558</v>
+        <v>1967234.921729689</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9956144.009440776</v>
+        <v>9956144.009440774</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
-        <v>79.51149230610422</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>232.2791855053265</v>
       </c>
     </row>
     <row r="3">
@@ -740,22 +740,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>24.89252150323437</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>28.33708868093411</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.36933024784481</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>232.0477154881478</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>227.9187527607135</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>45.22345353568445</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>178.7818072471473</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1040,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>220.6919221460917</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>3.073567695085361</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>309.1887248683535</v>
       </c>
       <c r="E8" t="n">
-        <v>283.8673609612664</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465031</v>
+        <v>65.76608425465005</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>91.06264775162346</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115235</v>
+        <v>20.24979976115223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>225.8092543744329</v>
       </c>
       <c r="V9" t="n">
-        <v>231.0241379848975</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>87.86811725997777</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.34571932180469</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>106.1798850986046</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,10 +1615,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>213.9987150475861</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>55.30088041042195</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>71.56327578339756</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>33.55293486400274</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182084</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206819</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>132.8121873168109</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>59.00369384633034</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634796</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>243.0058756606697</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>101.9154861872836</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>6.228861054224361</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="44">
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5702346036273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634.167062227511</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="C2" t="n">
         <v>553.8524235344764</v>
@@ -4330,22 +4330,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>634.167062227511</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>634.167062227511</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>634.167062227511</v>
+        <v>820.2300801016544</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>443.3593748609978</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>443.3593748609978</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>418.2154137466196</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>258.9779587411641</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
         <v>21.09711040012049</v>
@@ -4412,49 +4412,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957459</v>
+        <v>121.653531464967</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298712</v>
+        <v>268.3979551252636</v>
       </c>
       <c r="M3" t="n">
-        <v>433.126243926395</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110289999</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557296</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.176358389133</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>839.7105578442523</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>611.5747118810658</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>611.5747118810658</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="W3" t="n">
-        <v>611.5747118810658</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="X3" t="n">
-        <v>611.5747118810658</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y3" t="n">
-        <v>611.5747118810658</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.7170450051586</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>351.7808620772518</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>351.7808620772518</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>351.7808620772518</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>204.8909145793414</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375337</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1053.472358139515</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>787.0947015723366</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>787.0947015723366</v>
+        <v>820.4638881998146</v>
       </c>
       <c r="W4" t="n">
-        <v>520.7170450051586</v>
+        <v>820.4638881998146</v>
       </c>
       <c r="X4" t="n">
-        <v>520.7170450051586</v>
+        <v>592.4743373017973</v>
       </c>
       <c r="Y4" t="n">
-        <v>520.7170450051586</v>
+        <v>371.6817581582671</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="C5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="D5" t="n">
-        <v>670.3237564101303</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="E5" t="n">
-        <v>670.3237564101303</v>
+        <v>820.230080101654</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9460998429522</v>
+        <v>553.8524235344762</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="X5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="Y5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006024</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957456</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263948</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557294</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>930.1763583891328</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166548</v>
+        <v>990.8393801161635</v>
       </c>
       <c r="T6" t="n">
-        <v>691.0742594480924</v>
+        <v>990.8393801161635</v>
       </c>
       <c r="U6" t="n">
-        <v>510.4865753600648</v>
+        <v>762.703534152977</v>
       </c>
       <c r="V6" t="n">
-        <v>275.3344671283221</v>
+        <v>527.5514259212343</v>
       </c>
       <c r="W6" t="n">
-        <v>21.0971104001205</v>
+        <v>273.3140691930327</v>
       </c>
       <c r="X6" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749989</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.7808620772518</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="C7" t="n">
-        <v>351.7808620772518</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="D7" t="n">
-        <v>351.7808620772518</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="E7" t="n">
-        <v>351.7808620772518</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="F7" t="n">
-        <v>204.8909145793414</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227042</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075538</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640393</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U7" t="n">
-        <v>606.4653502831386</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="V7" t="n">
-        <v>351.7808620772518</v>
+        <v>533.7933752329596</v>
       </c>
       <c r="W7" t="n">
-        <v>351.7808620772518</v>
+        <v>267.4157186657818</v>
       </c>
       <c r="X7" t="n">
-        <v>351.7808620772518</v>
+        <v>39.42616776776441</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.7808620772518</v>
+        <v>36.32155393434486</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1600.030995122901</v>
+        <v>1642.433866040418</v>
       </c>
       <c r="C8" t="n">
-        <v>1231.06847818249</v>
+        <v>1642.433866040418</v>
       </c>
       <c r="D8" t="n">
-        <v>1231.06847818249</v>
+        <v>1330.122022739051</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3337701408066</v>
+        <v>944.3337701408063</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3478653511989</v>
+        <v>533.3478653511988</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428661</v>
+        <v>117.641643342866</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>117.641643342866</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685571</v>
+        <v>51.21125520685584</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467173</v>
+        <v>187.3702251467179</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607426</v>
+        <v>442.1757437607439</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045936</v>
+        <v>795.1862829045954</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995228</v>
+        <v>1219.647962995231</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209585</v>
+        <v>1655.59168520959</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940598</v>
+        <v>2053.905718940602</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.3565305502</v>
+        <v>2359.356530550205</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661166</v>
+        <v>2540.564622661172</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762138</v>
+        <v>2435.830015762145</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.077931858411</v>
+        <v>2227.077931858418</v>
       </c>
       <c r="U8" t="n">
-        <v>1973.496753383981</v>
+        <v>1973.496753383988</v>
       </c>
       <c r="V8" t="n">
-        <v>1973.496753383981</v>
+        <v>1642.433866040418</v>
       </c>
       <c r="W8" t="n">
-        <v>1973.496753383981</v>
+        <v>1642.433866040418</v>
       </c>
       <c r="X8" t="n">
-        <v>1600.030995122901</v>
+        <v>1642.433866040418</v>
       </c>
       <c r="Y8" t="n">
-        <v>1600.030995122901</v>
+        <v>1642.433866040418</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010868</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199598</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818587086</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532531</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801381</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763262</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>71.6655983999389</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685571</v>
+        <v>51.21125520685584</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507237</v>
+        <v>113.4887579637193</v>
       </c>
       <c r="K9" t="n">
-        <v>422.915879301823</v>
+        <v>298.0857543148192</v>
       </c>
       <c r="L9" t="n">
-        <v>717.4518627353045</v>
+        <v>931.8250374996603</v>
       </c>
       <c r="M9" t="n">
-        <v>1080.518331209606</v>
+        <v>1294.891505973963</v>
       </c>
       <c r="N9" t="n">
-        <v>1467.602733682176</v>
+        <v>1681.975908446533</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.489543669565</v>
+        <v>2013.862718433923</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.078715030392</v>
+        <v>2445.345361789046</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442628</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342786</v>
+        <v>2560.562760342792</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251701</v>
+        <v>2424.826280251707</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.81647768535</v>
+        <v>2230.816477685356</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751579</v>
+        <v>2002.726321751586</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519843</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791642</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586109</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821155</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>414.7781118752447</v>
+        <v>715.9213805686188</v>
       </c>
       <c r="C10" t="n">
-        <v>245.8419289473378</v>
+        <v>546.9851976407119</v>
       </c>
       <c r="D10" t="n">
-        <v>245.8419289473378</v>
+        <v>396.8685582283762</v>
       </c>
       <c r="E10" t="n">
-        <v>245.8419289473378</v>
+        <v>248.9554646459831</v>
       </c>
       <c r="F10" t="n">
-        <v>157.0862549473602</v>
+        <v>102.0655171480727</v>
       </c>
       <c r="G10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685584</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685584</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685571</v>
+        <v>51.21125520685584</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380158</v>
+        <v>76.6346830838019</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676569</v>
+        <v>248.2500215676576</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368923</v>
+        <v>523.3850043368933</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904039</v>
+        <v>823.8653899904054</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101615</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.582027931094</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.4903876165</v>
+        <v>1581.490387616503</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412621</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634455</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="T10" t="n">
-        <v>1113.53450110886</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="U10" t="n">
-        <v>824.4161276035018</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="V10" t="n">
-        <v>824.4161276035018</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="W10" t="n">
-        <v>824.4161276035018</v>
+        <v>1346.351975440406</v>
       </c>
       <c r="X10" t="n">
-        <v>596.4265767054844</v>
+        <v>1118.362424542389</v>
       </c>
       <c r="Y10" t="n">
-        <v>596.4265767054844</v>
+        <v>897.5698453988585</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>640.1060525954244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5244,7 +5244,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>809.0422355233313</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5263,7 +5263,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5278,10 +5278,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.3777707160738</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1472.225535624822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1182.808365587861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>954.8188146898436</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.0262355463135</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,31 +5503,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,28 +5536,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,19 +5767,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>639.6425904082686</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3195.647281583948</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C25" t="n">
-        <v>3026.711098656041</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D25" t="n">
-        <v>2876.594459243706</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661313</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3605.285297312205</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3377.295746414188</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3377.295746414188</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>700.7543264856188</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6454,61 +6454,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111702</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="30">
@@ -6530,34 +6530,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.10905366816</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C31" t="n">
-        <v>922.1728707402528</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>772.0562313279171</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>624.143137745524</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>477.2531902476136</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0570909624935</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1628.786163100837</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1339.368993063876</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.757518498399</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y31" t="n">
-        <v>1272.757518498399</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="32">
@@ -6694,28 +6694,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6794,13 +6794,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>705.9324428257312</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1625.780207734479</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1336.363037697518</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1108.373486799501</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>887.5809076559709</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,10 +6973,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>113.9333885650331</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7262,19 +7262,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>734.6461798836013</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D40" t="n">
-        <v>734.6461798836013</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7377,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,13 +7402,13 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,22 +7426,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1022.872235754091</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>853.936052826184</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>703.8194134138482</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>555.9063198314551</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>409.0163723335447</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>241.8202730484247</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>100.1084418906227</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1653.302830625878</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1425.313279727861</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1204.520700584331</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2272.649715293768</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1983.574488637966</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>26.13373767211345</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127285</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127268</v>
+        <v>97.32166909127288</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084432</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>168.2361746779826</v>
+        <v>186.3103888136343</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348483</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-1.909780279859961e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2.387423592153937e-12</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>112.4047682534901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>38.1389282762419</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>124.5310997715154</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>214.9597225531934</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.6938862346251</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482525529412982</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>193.1339494774977</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>9.131767663158342</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>44.51847645928558</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>75.03697526434117</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>44.83521572366092</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856043.1451846791</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856043.1451846791</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049988</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049986</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.238904999</v>
-      </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.619783004</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830042</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830044</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830043</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580794</v>
+        <v>390680.0076580816</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606927</v>
+        <v>507909.2320606909</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101777</v>
+        <v>95270.23779101827</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954689</v>
+        <v>132717.9756954685</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248543.2666865467</v>
+        <v>248543.2666865468</v>
       </c>
       <c r="C4" t="n">
-        <v>248543.2666865467</v>
+        <v>248543.2666865468</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.4547662836</v>
+        <v>136854.4547662831</v>
       </c>
       <c r="E4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756644</v>
       </c>
       <c r="K4" t="n">
+        <v>9337.200356756603</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.200356756633</v>
+      </c>
+      <c r="M4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="L4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756592</v>
-      </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756657</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.867575679</v>
+        <v>92902.86757567915</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416949.8115770071</v>
+        <v>-416949.8115770072</v>
       </c>
       <c r="C6" t="n">
-        <v>263138.1690141858</v>
+        <v>263138.169014186</v>
       </c>
       <c r="D6" t="n">
-        <v>-45708.09109504338</v>
+        <v>-45708.09109504547</v>
       </c>
       <c r="E6" t="n">
-        <v>-53366.34245835228</v>
+        <v>-53713.72171270751</v>
       </c>
       <c r="F6" t="n">
-        <v>454542.8896023407</v>
+        <v>454195.5103479836</v>
       </c>
       <c r="G6" t="n">
-        <v>454542.8896023407</v>
+        <v>454195.5103479838</v>
       </c>
       <c r="H6" t="n">
-        <v>454542.8896023408</v>
+        <v>454195.5103479836</v>
       </c>
       <c r="I6" t="n">
-        <v>454542.8896023407</v>
+        <v>454195.5103479839</v>
       </c>
       <c r="J6" t="n">
-        <v>385543.7351832268</v>
+        <v>385196.3559288699</v>
       </c>
       <c r="K6" t="n">
-        <v>454542.8896023407</v>
+        <v>454195.5103479841</v>
       </c>
       <c r="L6" t="n">
-        <v>359272.651811323</v>
+        <v>358925.2725569655</v>
       </c>
       <c r="M6" t="n">
-        <v>321824.9139068716</v>
+        <v>321477.5346525154</v>
       </c>
       <c r="N6" t="n">
-        <v>454542.8896023407</v>
+        <v>454195.5103479839</v>
       </c>
       <c r="O6" t="n">
-        <v>454542.8896023409</v>
+        <v>454195.5103479839</v>
       </c>
       <c r="P6" t="n">
-        <v>454542.8896023405</v>
+        <v>454195.5103479837</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627832</v>
+        <v>933.7024595627848</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856964</v>
+        <v>640.140690085698</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933049</v>
+        <v>319.6474457933068</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788905</v>
+        <v>434.2730407788889</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841902</v>
+        <v>376.4268100841919</v>
       </c>
       <c r="E4" t="n">
-        <v>532.567598013952</v>
+        <v>532.5675980139501</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841902</v>
+        <v>376.4268100841921</v>
       </c>
       <c r="M4" t="n">
-        <v>532.567598013952</v>
+        <v>532.5675980139504</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841902</v>
+        <v>376.4268100841919</v>
       </c>
       <c r="M4" t="n">
-        <v>532.567598013952</v>
+        <v>532.5675980139501</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>285.7613994649033</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>153.9587531507271</v>
       </c>
     </row>
     <row r="3">
@@ -27460,25 +27460,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>122.5525440614044</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>204.4634984684912</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>221.8450156317211</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>20.08992783568019</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>126.7642888599694</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>149.6511845669352</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>143.1621657402054</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442038</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776191</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>101.9264818765143</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>47.0726802564073</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>65.56670835658576</v>
+        <v>22.54475050117139</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508492</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>215.5110856570094</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>45.4943167523295</v>
       </c>
       <c r="E8" t="n">
-        <v>98.06300911099538</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.776449164521566</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27991,7 +27991,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.776449164527747</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>57.55293076295348</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>115.9615342899015</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29438,7 +29438,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3.93483829427545e-12</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.023865130609293e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31065,25 +31065,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31226,19 +31226,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885558</v>
+        <v>3.753577726885564</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546673</v>
+        <v>38.4413278954668</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157556</v>
+        <v>144.7098053157559</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972534</v>
+        <v>318.580217597254</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763192</v>
+        <v>477.46916277632</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354932</v>
+        <v>592.3427171354942</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359942</v>
+        <v>659.0954050359953</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525079</v>
+        <v>669.760257752509</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307896</v>
+        <v>632.4356192307906</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983022</v>
+        <v>539.7691690983032</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542131</v>
+        <v>405.3441667542137</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864751</v>
+        <v>235.7856768864755</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140474</v>
+        <v>85.53465245140488</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944154</v>
+        <v>16.43128649944157</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508446</v>
+        <v>0.3002862181508451</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00834113943693</v>
+        <v>2.008341139436934</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035141</v>
+        <v>19.39634732035144</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026273</v>
+        <v>69.14683309026285</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079426</v>
+        <v>189.7441951079429</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502169</v>
+        <v>324.3030514502175</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571282</v>
+        <v>436.065474157129</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617168</v>
+        <v>508.8678404617177</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152216</v>
+        <v>522.3360580152224</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519085</v>
+        <v>477.8354464519093</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947591</v>
+        <v>383.5050724947597</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463703</v>
+        <v>256.3629847463707</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366401</v>
+        <v>37.30405581366407</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133938</v>
+        <v>8.095024154133952</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419036</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.68372574675256</v>
+        <v>1.683725746752563</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840004</v>
+        <v>14.96985254840007</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415882</v>
+        <v>50.6342251841589</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954062</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772519</v>
+        <v>195.6183185772522</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490124</v>
+        <v>250.3240987490128</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023126</v>
+        <v>263.9316641023131</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462351</v>
+        <v>257.6559590462355</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046255</v>
+        <v>237.9869810046259</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708731</v>
+        <v>203.6389757708735</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939805</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307417</v>
+        <v>75.70643221307429</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658778</v>
+        <v>29.34274778658783</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942754</v>
+        <v>7.194100917942766</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650337</v>
+        <v>0.09183958618650352</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,7 +31846,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>237.3557891543625</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107744</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>407.2177391203972</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763041</v>
+        <v>101.5721424897439</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877692</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877691</v>
+        <v>125.9385470877692</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705671</v>
+        <v>137.5343130705677</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313386</v>
+        <v>257.3793117313394</v>
       </c>
       <c r="L8" t="n">
-        <v>356.576302165506</v>
+        <v>356.576302165507</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087215</v>
+        <v>428.7491718087226</v>
       </c>
       <c r="N8" t="n">
-        <v>440.347194155917</v>
+        <v>440.3471941559181</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091028</v>
+        <v>402.3374078091039</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430327</v>
+        <v>308.5361733430337</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797636</v>
+        <v>183.0384768797643</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234301</v>
+        <v>20.2001390723434</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816848</v>
+        <v>62.90656844127625</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758579</v>
+        <v>186.4616124758585</v>
       </c>
       <c r="L9" t="n">
-        <v>297.511094377254</v>
+        <v>640.140690085698</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396985</v>
+        <v>366.7338065396993</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318883</v>
+        <v>390.9943459318891</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074641</v>
+        <v>335.2392020074649</v>
       </c>
       <c r="P9" t="n">
-        <v>417.7668397584114</v>
+        <v>435.8410538940638</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961979</v>
+        <v>116.3812106603492</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783578</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.6802301787332</v>
+        <v>25.6802301787334</v>
       </c>
       <c r="K10" t="n">
-        <v>173.348826751369</v>
+        <v>173.3488267513694</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093286</v>
+        <v>277.914124009329</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641532</v>
+        <v>303.5155410641536</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254637</v>
+        <v>301.7881314254641</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186652</v>
+        <v>262.5721089186656</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357666</v>
+        <v>200.917535035767</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228587</v>
+        <v>54.82702814228612</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,7 +35494,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>94.75954470991805</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663299</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>94.75954470991793</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396407</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>265.0837051983789</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37797,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683835</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1967234.921729689</v>
+        <v>1968995.452032474</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>259.632696771575</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>232.2791855053265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,13 +749,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>8.103840706841618</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>28.33708868093411</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>232.2065421896112</v>
       </c>
       <c r="V4" t="n">
-        <v>232.0477154881478</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
-        <v>232.2791855053266</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>232.2791855053264</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>95.30066263341871</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>45.22345353568445</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>116.8302600053038</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.073567695085361</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>309.1887248683535</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>397.4582466769069</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465005</v>
+        <v>65.76608425465079</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>123.4854171348409</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>206.6645630646899</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>91.06264775162346</v>
+        <v>92.83909691614512</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115223</v>
+        <v>20.24979976115259</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.379115290174</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>224.0328052098896</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.34571932180469</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>32.65393872830212</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>83.06560892427829</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365948</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>23.10998325716844</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890409</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060102</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520985</v>
       </c>
     </row>
     <row r="20">
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2289,10 +2289,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>125.2851635392052</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>63.1628130171261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>46.29306638366984</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>33.55293486400274</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182084</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>32.26041896250234</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206819</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>59.00369384633034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>91.89996056624796</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3435,10 +3435,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>146.1850499531015</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>104.8913819999782</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553.8524235344764</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="C2" t="n">
-        <v>553.8524235344764</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="D2" t="n">
-        <v>553.8524235344764</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344764</v>
+        <v>157.477756798422</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="Y2" t="n">
-        <v>820.2300801016544</v>
+        <v>686.1106626298172</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2565623210693</v>
+        <v>511.9077020316327</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>337.4546727505057</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>188.5202630892544</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>29.2828080837989</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>29.2828080837989</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>29.2828080837989</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>121.653531464967</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>268.3979551252636</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4433,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="V3" t="n">
-        <v>1026.232198106091</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="W3" t="n">
-        <v>1026.232198106091</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="X3" t="n">
-        <v>1026.232198106091</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="Y3" t="n">
-        <v>818.4718993411373</v>
+        <v>680.1230390517007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.0332933280274</v>
+        <v>340.1499327403632</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075543</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>594.83442094625</v>
       </c>
       <c r="V4" t="n">
-        <v>820.4638881998146</v>
+        <v>340.1499327403632</v>
       </c>
       <c r="W4" t="n">
-        <v>820.4638881998146</v>
+        <v>340.1499327403632</v>
       </c>
       <c r="X4" t="n">
-        <v>592.4743373017973</v>
+        <v>340.1499327403632</v>
       </c>
       <c r="Y4" t="n">
-        <v>371.6817581582671</v>
+        <v>340.1499327403632</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="D5" t="n">
-        <v>1054.855520006024</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="E5" t="n">
-        <v>820.230080101654</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F5" t="n">
-        <v>553.8524235344762</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672984</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4588,31 +4588,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.46256898749989</v>
+        <v>750.7407242111801</v>
       </c>
       <c r="C6" t="n">
-        <v>65.46256898749989</v>
+        <v>576.2876949300531</v>
       </c>
       <c r="D6" t="n">
-        <v>65.46256898749989</v>
+        <v>427.3532852688019</v>
       </c>
       <c r="E6" t="n">
-        <v>65.46256898749989</v>
+        <v>268.1158302633464</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749989</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749989</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957456</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298711</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263948</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110289997</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557294</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891328</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>990.8393801161635</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>990.8393801161635</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>762.703534152977</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>527.5514259212343</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W6" t="n">
-        <v>273.3140691930327</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X6" t="n">
-        <v>65.46256898749989</v>
+        <v>847.004019800492</v>
       </c>
       <c r="Y6" t="n">
-        <v>65.46256898749989</v>
+        <v>847.004019800492</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.32155393434486</v>
+        <v>606.0733899644773</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434486</v>
+        <v>437.1372070365704</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434486</v>
+        <v>287.0205676242347</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434486</v>
+        <v>139.1074740418416</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434486</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434486</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434486</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434486</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227042</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075538</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>788.4778634388465</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>533.7933752329596</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>267.4157186657818</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>39.42616776776441</v>
+        <v>826.8659691080074</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.32155393434486</v>
+        <v>606.0733899644773</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1642.433866040418</v>
+        <v>526.0601205333899</v>
       </c>
       <c r="C8" t="n">
-        <v>1642.433866040418</v>
+        <v>526.0601205333899</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.122022739051</v>
+        <v>526.0601205333899</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3337701408063</v>
+        <v>526.0601205333899</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3478653511988</v>
+        <v>519.1146197841864</v>
       </c>
       <c r="G8" t="n">
-        <v>117.641643342866</v>
+        <v>117.6416433428663</v>
       </c>
       <c r="H8" t="n">
-        <v>117.641643342866</v>
+        <v>117.6416433428663</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685584</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467179</v>
+        <v>187.3702251467157</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607439</v>
+        <v>442.1757437607394</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045954</v>
+        <v>795.1862829045883</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995231</v>
+        <v>1219.64796299522</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520959</v>
+        <v>1655.591685209576</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940602</v>
+        <v>2053.905718940587</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550205</v>
+        <v>2359.356530550187</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661172</v>
+        <v>2540.564622661152</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342792</v>
+        <v>2560.562760342771</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762145</v>
+        <v>2435.830015762123</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.077931858418</v>
+        <v>2227.077931858396</v>
       </c>
       <c r="U8" t="n">
-        <v>1973.496753383988</v>
+        <v>1973.496753383966</v>
       </c>
       <c r="V8" t="n">
-        <v>1642.433866040418</v>
+        <v>1642.433866040396</v>
       </c>
       <c r="W8" t="n">
-        <v>1642.433866040418</v>
+        <v>1289.665210770281</v>
       </c>
       <c r="X8" t="n">
-        <v>1642.433866040418</v>
+        <v>916.1994525092016</v>
       </c>
       <c r="Y8" t="n">
-        <v>1642.433866040418</v>
+        <v>526.0601205333899</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010868</v>
+        <v>931.3041138965633</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199598</v>
+        <v>756.8510846154363</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587086</v>
+        <v>607.9166749541851</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532531</v>
+        <v>448.6792199487295</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801381</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763262</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>71.66559839993883</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685584</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637193</v>
+        <v>113.4887579637179</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148192</v>
+        <v>298.0857543148162</v>
       </c>
       <c r="L9" t="n">
-        <v>931.8250374996603</v>
+        <v>776.7040495714531</v>
       </c>
       <c r="M9" t="n">
-        <v>1294.891505973963</v>
+        <v>1139.770518045753</v>
       </c>
       <c r="N9" t="n">
-        <v>1681.975908446533</v>
+        <v>1526.854920518321</v>
       </c>
       <c r="O9" t="n">
-        <v>2013.862718433923</v>
+        <v>1858.741730505708</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789046</v>
+        <v>2421.055229888869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342792</v>
+        <v>2536.272628442613</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342792</v>
+        <v>2560.562760342771</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251707</v>
+        <v>2424.826280251686</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685356</v>
+        <v>2230.816477685335</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751586</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519843</v>
+        <v>1769.36860661532</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791642</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586109</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821155</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686188</v>
+        <v>682.937604075375</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9851976407119</v>
+        <v>514.0014211474681</v>
       </c>
       <c r="D10" t="n">
-        <v>396.8685582283762</v>
+        <v>514.0014211474681</v>
       </c>
       <c r="E10" t="n">
-        <v>248.9554646459831</v>
+        <v>366.0883275650751</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0655171480727</v>
+        <v>219.1983800671647</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685584</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685584</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685584</v>
+        <v>51.21125520685541</v>
       </c>
       <c r="J10" t="n">
-        <v>76.6346830838019</v>
+        <v>76.63468308380087</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676576</v>
+        <v>248.2500215676556</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368933</v>
+        <v>523.38500433689</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904054</v>
+        <v>823.8653899904007</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101615</v>
+        <v>1122.635640101609</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931094</v>
+        <v>1382.582027931086</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616503</v>
+        <v>1581.490387616495</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477357</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477357</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477357</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477357</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477357</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477367</v>
+        <v>1602.785368984123</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440406</v>
+        <v>1313.368198947162</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.362424542389</v>
+        <v>1085.378648049145</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988585</v>
+        <v>864.5860689056148</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400678</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121609</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138377</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703075</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,19 +5290,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876655</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597586</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597586</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>264.0500279773655</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>117.1600804794552</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614354</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179052</v>
       </c>
     </row>
     <row r="17">
@@ -5503,28 +5503,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5542,10 +5542,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327614</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>594.8179559048546</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925188</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>296.7882229101257</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>149.8982754122153</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>945.4026036630012</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5752,22 +5752,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5785,7 +5785,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>631.7012443408906</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408906</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6159,40 +6159,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856188</v>
+        <v>814.4041655335318</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>664.287526121196</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6454,61 +6454,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111702</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6530,16 +6530,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1628.786163100837</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1339.368993063876</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.379442165859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,28 +6694,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6937,19 +6937,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.390058741045</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7174,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7311,22 +7311,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,34 +7426,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7614,7 +7614,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7630,37 +7630,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,7 +7669,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>26.13373767211345</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658823</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127288</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.6295957084432</v>
+        <v>185.9417291142998</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>186.3103888136343</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348483</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-1.909780279859961e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393406</v>
       </c>
       <c r="E13" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>142.4141550351004</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>110.0033420516678</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>55.74112246243936</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>205.8445769401582</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>133.6938862346251</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>114.1735436840668</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>193.1339494774977</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25092,7 +25092,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25125,10 +25125,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>125.5054897610403</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>71.22040037418677</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>62.35543909864963</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.1451846787</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.145184679</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049985</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049989</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049988</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049986</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049984</v>
-      </c>
       <c r="E2" t="n">
-        <v>565002.619783004</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="G2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="M2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="N2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830043</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830043</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580816</v>
+        <v>390680.0076580755</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606909</v>
+        <v>507909.2320606967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101827</v>
+        <v>95270.23779101684</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954685</v>
+        <v>132717.9756954699</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248543.2666865468</v>
+        <v>248543.2666865467</v>
       </c>
       <c r="C4" t="n">
-        <v>248543.2666865468</v>
+        <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.4547662831</v>
+        <v>136854.4547662848</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.200356756539</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9337.200356756539</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9337.200356756541</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9337.200356756552</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.200356756539</v>
+      </c>
+      <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="G4" t="n">
+      <c r="L4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9337.200356756644</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756603</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756633</v>
       </c>
       <c r="M4" t="n">
         <v>9337.20035675659</v>
@@ -26456,7 +26456,7 @@
         <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756657</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
         <v>9337.20035675659</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567915</v>
+        <v>92902.86757567871</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-416949.8115770072</v>
+        <v>-416949.8115770076</v>
       </c>
       <c r="C6" t="n">
         <v>263138.169014186</v>
       </c>
       <c r="D6" t="n">
-        <v>-45708.09109504547</v>
+        <v>-45708.09109504026</v>
       </c>
       <c r="E6" t="n">
-        <v>-53713.72171270751</v>
+        <v>-53401.08038379154</v>
       </c>
       <c r="F6" t="n">
-        <v>454195.5103479836</v>
+        <v>454508.151676905</v>
       </c>
       <c r="G6" t="n">
-        <v>454195.5103479838</v>
+        <v>454508.1516769049</v>
       </c>
       <c r="H6" t="n">
-        <v>454195.5103479836</v>
+        <v>454508.1516769053</v>
       </c>
       <c r="I6" t="n">
-        <v>454195.5103479839</v>
+        <v>454508.1516769049</v>
       </c>
       <c r="J6" t="n">
-        <v>385196.3559288699</v>
+        <v>385508.9972577909</v>
       </c>
       <c r="K6" t="n">
-        <v>454195.5103479841</v>
+        <v>454508.151676905</v>
       </c>
       <c r="L6" t="n">
-        <v>358925.2725569655</v>
+        <v>359237.9138858884</v>
       </c>
       <c r="M6" t="n">
-        <v>321477.5346525154</v>
+        <v>321790.1759814351</v>
       </c>
       <c r="N6" t="n">
-        <v>454195.5103479839</v>
+        <v>454508.151676905</v>
       </c>
       <c r="O6" t="n">
-        <v>454195.5103479839</v>
+        <v>454508.1516769049</v>
       </c>
       <c r="P6" t="n">
-        <v>454195.5103479837</v>
+        <v>454508.1516769049</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627848</v>
+        <v>933.7024595627801</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085698</v>
+        <v>640.1406900856927</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933068</v>
+        <v>319.6474457933017</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788889</v>
+        <v>434.2730407788939</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841919</v>
+        <v>376.4268100841865</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139501</v>
+        <v>532.5675980139559</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841921</v>
+        <v>376.4268100841865</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139504</v>
+        <v>532.5675980139559</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841919</v>
+        <v>376.4268100841865</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139501</v>
+        <v>532.5675980139559</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>95.050344849108</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>153.9587531507271</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27469,16 +27469,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>91.37547956436812</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27517,7 +27517,7 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>204.4634984684912</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>54.05208831306629</v>
       </c>
       <c r="V4" t="n">
-        <v>20.08992783568019</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
-        <v>149.6511845669352</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402054</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>180.5549891403836</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776191</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27669,7 +27669,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>71.23252101644863</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>101.9264818765143</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>28.5907880176274</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27794,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117139</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508492</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>215.5110856570094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,19 +27858,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>45.4943167523295</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>14.09091311134262</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.776449164521566</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164543294</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.9615342899015</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>101.5869591640956</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6738502503846</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>219.4837045955259</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28550,7 +28550,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-2.383967682258759e-12</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -28790,7 +28790,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
     </row>
     <row r="20">
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-4.215617492908463e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29231,7 +29231,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-2.383967682258759e-12</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29438,7 +29438,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3.93483829427545e-12</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.023865130609293e-12</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885564</v>
+        <v>3.753577726885545</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4413278954668</v>
+        <v>38.4413278954666</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157559</v>
+        <v>144.7098053157551</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597254</v>
+        <v>318.5802175972523</v>
       </c>
       <c r="K8" t="n">
-        <v>477.46916277632</v>
+        <v>477.4691627763175</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354942</v>
+        <v>592.3427171354912</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359953</v>
+        <v>659.0954050359919</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752509</v>
+        <v>669.7602577525056</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307906</v>
+        <v>632.4356192307874</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983032</v>
+        <v>539.7691690983004</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542137</v>
+        <v>405.3441667542117</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864755</v>
+        <v>235.7856768864743</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140488</v>
+        <v>85.53465245140444</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944157</v>
+        <v>16.43128649944148</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508451</v>
+        <v>0.3002862181508436</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436934</v>
+        <v>2.008341139436923</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035144</v>
+        <v>19.39634732035134</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026285</v>
+        <v>69.14683309026249</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079429</v>
+        <v>189.744195107942</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502175</v>
+        <v>324.3030514502158</v>
       </c>
       <c r="L9" t="n">
-        <v>436.065474157129</v>
+        <v>436.0654741571267</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617177</v>
+        <v>508.867840461715</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152224</v>
+        <v>522.3360580152198</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519093</v>
+        <v>477.8354464519069</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947597</v>
+        <v>383.5050724947578</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463707</v>
+        <v>256.3629847463694</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.6933209204785</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366407</v>
+        <v>37.30405581366388</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133952</v>
+        <v>8.095024154133911</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419036</v>
+        <v>0.1321277065419029</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752563</v>
+        <v>1.683725746752554</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840007</v>
+        <v>14.96985254839999</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6342251841589</v>
+        <v>50.63422518415864</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954062</v>
+        <v>119.0394102954056</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772522</v>
+        <v>195.6183185772512</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490128</v>
+        <v>250.3240987490116</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023131</v>
+        <v>263.9316641023117</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462355</v>
+        <v>257.6559590462342</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046259</v>
+        <v>237.9869810046247</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708735</v>
+        <v>203.6389757708725</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939805</v>
+        <v>140.9890713939798</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307429</v>
+        <v>75.70643221307391</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658783</v>
+        <v>29.34274778658768</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942766</v>
+        <v>7.194100917942729</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650352</v>
+        <v>0.09183958618650305</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>101.5721424897439</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>263.7138800015061</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34871,13 +34871,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958076</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763038</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877692</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705677</v>
+        <v>137.534313070566</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313394</v>
+        <v>257.379311731337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.576302165507</v>
+        <v>356.5763021655039</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087226</v>
+        <v>428.7491718087192</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559181</v>
+        <v>440.3471941559147</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091039</v>
+        <v>402.3374078091007</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430337</v>
+        <v>308.5361733430308</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797643</v>
+        <v>183.0384768797622</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2001390723434</v>
+        <v>20.20013907234221</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127625</v>
+        <v>62.90656844127528</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758585</v>
+        <v>186.4616124758568</v>
       </c>
       <c r="L9" t="n">
-        <v>640.140690085698</v>
+        <v>483.4528234915524</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396993</v>
+        <v>366.7338065396967</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318891</v>
+        <v>390.9943459318865</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074649</v>
+        <v>335.2392020074624</v>
       </c>
       <c r="P9" t="n">
-        <v>435.8410538940638</v>
+        <v>567.9934337203647</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603492</v>
+        <v>116.3812106603478</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783535</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.6802301787334</v>
+        <v>25.68023017873278</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513694</v>
+        <v>173.3488267513684</v>
       </c>
       <c r="L10" t="n">
-        <v>277.914124009329</v>
+        <v>277.9141240093277</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641536</v>
+        <v>303.5155410641523</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254641</v>
+        <v>301.7881314254628</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186656</v>
+        <v>262.5721089186644</v>
       </c>
       <c r="P10" t="n">
-        <v>200.917535035767</v>
+        <v>200.917535035766</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228612</v>
+        <v>54.82702814228541</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36527,7 +36527,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899036</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396407</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -37797,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683835</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
